--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 11 (2,)/NODE_11nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(2,)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 11 (2,)/NODE_11nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(2,)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 37</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,10 +435,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -444,43 +450,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6217791684606125</v>
+        <v>0.6217755915230598</v>
       </c>
       <c r="E2">
-        <v>0.6217791684606125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.6217755915230598</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6769681857160229</v>
+        <v>0.6769681701771864</v>
       </c>
       <c r="E3">
-        <v>0.6769681857160229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.6769681701771864</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.4912260836154309</v>
+        <v>0.4912260747114239</v>
       </c>
       <c r="E4">
-        <v>0.4912260836154309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.4912260747114239</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -491,44 +506,53 @@
       <c r="E5">
         <v>0.7438426620326011</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4731063168510609</v>
+        <v>0.4731063092683897</v>
       </c>
       <c r="E6">
-        <v>0.4731063168510609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.4731063092683897</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.5305438996167012</v>
+        <v>0.5305438823085764</v>
       </c>
       <c r="E7">
-        <v>0.4694561003832988</v>
+        <v>0.4694561176914236</v>
       </c>
       <c r="F7">
-        <v>0.9024342894554138</v>
+        <v>0.9024326801300049</v>
       </c>
       <c r="G7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -542,10 +566,13 @@
       <c r="E8">
         <v>0.7592324548220474</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -556,10 +583,13 @@
       <c r="E9">
         <v>0.6942697407297851</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -570,10 +600,13 @@
       <c r="E10">
         <v>0.4952933857026143</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -584,10 +617,13 @@
       <c r="E11">
         <v>0.7438426620326011</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -598,10 +634,13 @@
       <c r="E12">
         <v>0.4643721791917575</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -617,6 +656,9 @@
       </c>
       <c r="G13">
         <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
